--- a/data/Sources/NGC4725.xlsx
+++ b/data/Sources/NGC4725.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="525">
   <si>
     <t>Results from query to  NASA/IPAC Extragalactic Database (NED),</t>
   </si>
@@ -1587,13 +1587,16 @@
   </si>
   <si>
     <t>750      MHz</t>
+  </si>
+  <si>
+    <t>http://ned.ipac.caltech.edu/cgi-bin/datasearch?objname=ngc4725&amp;meas_type=bot&amp;ebars_spec=ebars&amp;label_spec=no&amp;x_spec=freq&amp;y_spec=Fnu_jy&amp;xr=-1&amp;of=table&amp;search_type=Photometry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1639,6 +1642,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1806,11 +1815,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="12"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1824,14 +1837,65 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="10" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>626121</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://ned.ipac.caltech.edu/results/photo_15484.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="38101"/>
+          <a:ext cx="4350396" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2121,7 +2185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2148,6 +2214,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I3" s="13" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -9543,7 +9612,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
